--- a/burndownchart4.xlsx
+++ b/burndownchart4.xlsx
@@ -93,19 +93,19 @@
     <t xml:space="preserve">Percentage Completed</t>
   </si>
   <si>
-    <t xml:space="preserve">arcade events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arcade ball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">settings</t>
+    <t xml:space="preserve">arcade events – Tyler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arcade ball – Evan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maps – McClain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation – Cougar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settings – John</t>
   </si>
   <si>
     <t xml:space="preserve">Feature 7</t>
@@ -1047,7 +1047,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1600" spc="117" strike="noStrike">
+              <a:defRPr b="1" sz="1600" spc="114" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1055,7 +1055,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1600" spc="117" strike="noStrike">
+              <a:rPr b="1" sz="1600" spc="114" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1221,6 +1221,18 @@
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1444,11 +1456,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="80075083"/>
-        <c:axId val="21589520"/>
+        <c:axId val="84330651"/>
+        <c:axId val="60383789"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80075083"/>
+        <c:axId val="84330651"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,7 +1493,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="800" spc="117" strike="noStrike">
+              <a:defRPr b="0" sz="800" spc="114" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1490,7 +1502,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21589520"/>
+        <c:crossAx val="60383789"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1498,7 +1510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21589520"/>
+        <c:axId val="60383789"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1530,7 +1542,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80075083"/>
+        <c:crossAx val="84330651"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1594,7 +1606,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1600" spc="97" strike="noStrike">
+              <a:defRPr b="1" sz="1600" spc="94" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="f2f2f2"/>
                 </a:solidFill>
@@ -1602,7 +1614,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1600" spc="97" strike="noStrike">
+              <a:rPr b="1" sz="1600" spc="94" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="f2f2f2"/>
                 </a:solidFill>
@@ -1780,6 +1792,18 @@
                 <c:pt idx="0">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2001,11 +2025,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="74768209"/>
-        <c:axId val="6714183"/>
+        <c:axId val="13137824"/>
+        <c:axId val="90160555"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74768209"/>
+        <c:axId val="13137824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,7 +2097,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6714183"/>
+        <c:crossAx val="90160555"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2081,7 +2105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6714183"/>
+        <c:axId val="90160555"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,7 +2180,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74768209"/>
+        <c:crossAx val="13137824"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2226,9 +2250,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>1047600</xdr:colOff>
+      <xdr:colOff>1047240</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1104480</xdr:rowOff>
+      <xdr:rowOff>1104120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2236,8 +2260,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10424880" y="66600"/>
-        <a:ext cx="9226440" cy="2047680"/>
+        <a:off x="10421280" y="66600"/>
+        <a:ext cx="9216720" cy="2047320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2261,9 +2285,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>228240</xdr:colOff>
+      <xdr:colOff>227880</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2272,7 +2296,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="237960" y="218880"/>
-        <a:ext cx="17443080" cy="6305400"/>
+        <a:ext cx="17457480" cy="6305040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2297,14 +2321,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="70.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="70.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="3" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="3" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18.14"/>
   </cols>
   <sheetData>
@@ -2562,9 +2586,15 @@
       <c r="B8" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
+      <c r="C8" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="F8" s="19"/>
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
@@ -2584,11 +2614,11 @@
       <c r="V8" s="19"/>
       <c r="W8" s="20" t="n">
         <f aca="false">B8-SUM(C8:V8)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X8" s="21" t="n">
         <f aca="false">IFERROR(1-(W8/B8),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2599,7 +2629,9 @@
         <v>2</v>
       </c>
       <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
+      <c r="D9" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="E9" s="24"/>
       <c r="F9" s="25"/>
       <c r="G9" s="24"/>
@@ -2620,11 +2652,11 @@
       <c r="V9" s="25"/>
       <c r="W9" s="26" t="n">
         <f aca="false">B9-SUM(C9:V9)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X9" s="21" t="n">
         <f aca="false">IFERROR(1-(W9/B9),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2637,7 +2669,9 @@
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
+      <c r="F10" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="G10" s="24"/>
       <c r="H10" s="25"/>
       <c r="I10" s="24"/>
@@ -2656,11 +2690,11 @@
       <c r="V10" s="25"/>
       <c r="W10" s="26" t="n">
         <f aca="false">B10-SUM(C10:V10)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X10" s="21" t="n">
         <f aca="false">IFERROR(1-(W10/B10),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2672,7 +2706,9 @@
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="24" t="n">
+        <v>3</v>
+      </c>
       <c r="F11" s="25"/>
       <c r="G11" s="24"/>
       <c r="H11" s="25"/>
@@ -2692,11 +2728,11 @@
       <c r="V11" s="25"/>
       <c r="W11" s="26" t="n">
         <f aca="false">B11-SUM(C11:V11)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X11" s="21" t="n">
         <f aca="false">IFERROR(1-(W11/B11),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2706,10 +2742,14 @@
       <c r="B12" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="D12" s="25"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
+      <c r="F12" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
       <c r="I12" s="24"/>
@@ -2728,11 +2768,11 @@
       <c r="V12" s="25"/>
       <c r="W12" s="26" t="n">
         <f aca="false">B12-SUM(C12:V12)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X12" s="21" t="n">
         <f aca="false">IFERROR(1-(W12/B12),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3591,21 +3631,21 @@
         <f aca="false">SUM(B8:B37)</f>
         <v>19</v>
       </c>
-      <c r="C38" s="35" t="e">
+      <c r="C38" s="35" t="n">
         <f aca="false">IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D38" s="35" t="e">
+        <v>14</v>
+      </c>
+      <c r="D38" s="35" t="n">
         <f aca="false">IFERROR(IF(C38-SUM(D8:D37)=C38,NA(),C38-SUM(D8:D37)),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E38" s="35" t="e">
+        <v>9</v>
+      </c>
+      <c r="E38" s="35" t="n">
         <f aca="false">IFERROR(IF(D38-SUM(E8:E37)=D38,NA(),D38-SUM(E8:E37)),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F38" s="35" t="e">
+        <v>4</v>
+      </c>
+      <c r="F38" s="35" t="n">
         <f aca="false">IFERROR(IF(E38-SUM(F8:F37)=E38,NA(),E38-SUM(F8:F37)),NA())</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="G38" s="35" t="e">
         <f aca="false">IFERROR(IF(F38-SUM(G8:G37)=F38,NA(),F38-SUM(G8:G37)),NA())</f>
@@ -3673,11 +3713,11 @@
       </c>
       <c r="W38" s="36" t="n">
         <f aca="false">SUM(W8:W37)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="X38" s="37" t="n">
         <f aca="false">IFERROR(1-(W38/B38),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3793,7 +3833,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D56ED417-8027-4050-A3BB-C96DC9991DB0}</x14:id>
+          <x14:id>{74404AF7-26FB-4970-A712-E8E79793373B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3811,7 +3851,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D56ED417-8027-4050-A3BB-C96DC9991DB0}">
+          <x14:cfRule type="dataBar" id="{74404AF7-26FB-4970-A712-E8E79793373B}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3842,7 +3882,7 @@
       <selection pane="topLeft" activeCell="T37" activeCellId="0" sqref="T37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
